--- a/Translation2/sample.xlsx
+++ b/Translation2/sample.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZAGL\TranslationConverter\Translation2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Onboarding</t>
   </si>
@@ -70,18 +75,12 @@
   </si>
   <si>
     <t>الجديد لدينا</t>
-  </si>
-  <si>
-    <t>Onboarding.</t>
-  </si>
-  <si>
-    <t>ا نقدّر السلام</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -133,15 +132,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,44 +454,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
